--- a/Processed/Buildings_Heat_Denmark.xlsx
+++ b/Processed/Buildings_Heat_Denmark.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renewables21.sharepoint.com/sites/GSR2022/Shared Documents/Data and Research/Buildings/!Data processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fec28a7282d28e21/2_Areas/Coding/coding jobs/2022/heat_country_data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{A18B25F2-62BB-4712-A3C8-C60A7B2D9BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06380978-43C1-4D50-A0C9-5981BE546F3C}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="13_ncr:1_{A18B25F2-62BB-4712-A3C8-C60A7B2D9BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3827D74-1574-4D1B-8435-39031DCC747D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,6 +323,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -991,7 +992,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1136,7 +1137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1189,7 +1190,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1462,7 +1463,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1717,7 +1718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1770,7 +1771,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3738,7 +3739,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4006,9 +4007,13 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:A14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{1A6F471E-FD49-4780-8359-9225CF2D356B}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{A2F9747A-00CC-4484-8520-510FA1D89066}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4341,7 +4346,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4504,13 +4509,13 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -4607,12 +4612,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE8480B7C632594FA313C10E3948A31B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="294d08aa59b3a2306e0b7933d74d31b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14bb2503-ddb6-49cc-80f3-06fb7081acb2" xmlns:ns3="361aa444-5cc2-4dfb-bc3c-4ebb8d1d865e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed99d9e309e7f8758d28b1b6ac4a0b4c" ns2:_="" ns3:_="">
     <xsd:import namespace="14bb2503-ddb6-49cc-80f3-06fb7081acb2"/>
@@ -4829,16 +4843,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A016EC-5AE6-473F-B6CD-01DD4B0BC57A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E510C4F-07ED-47EB-A55B-128ED0B4183D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4847,7 +4860,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA581134-CB8E-4277-954B-661327E9A7DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4864,12 +4877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A016EC-5AE6-473F-B6CD-01DD4B0BC57A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>